--- a/Files/Vaccine_February 23, 2004.xlsx
+++ b/Files/Vaccine_February 23, 2004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 10 x 1 dose vial </t>
+    <t xml:space="preserve">10 x 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$11.75</t>
@@ -77,28 +77,31 @@
     <t xml:space="preserve">Infanrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose TIP-LOK syringe </t>
-  </si>
-  <si>
     <t xml:space="preserve">$19.65</t>
   </si>
   <si>
     <t xml:space="preserve">GlaxoSmithKline</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-HepB-IPV*</t>
+    <t xml:space="preserve">5 x 1 dose TIP-LOK syringe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose syringe </t>
-  </si>
-  <si>
     <t xml:space="preserve">$32.75</t>
   </si>
   <si>
     <t xml:space="preserve">$69.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x 1 dose syringe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTaP-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -135,7 +138,7 @@
     <t xml:space="preserve">Aventis Pasteur</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B^</t>
+    <t xml:space="preserve">Hepatitis B-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -186,18 +189,13 @@
     <t xml:space="preserve">Hepatitis A Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vials
-1 dose vial</t>
-  </si>
-  <si>
     <t xml:space="preserve">$17.75</t>
   </si>
   <si>
-    <t xml:space="preserve">$59.24
-$62.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HepatitisA Adult</t>
+    <t xml:space="preserve">$59.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$62.76</t>
   </si>
   <si>
     <t xml:space="preserve">1 dose TIP-LOK</t>
@@ -233,7 +231,7 @@
     <t xml:space="preserve">$78.67</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -248,10 +246,7 @@
     <t xml:space="preserve">5 x1 T-L Syr No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">251 T-L Syr No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 x1 T-L Syr 5/8&amp;Prime; Needle</t>
+    <t xml:space="preserve">25 x1 T-L Syr 5/8" Needle</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -326,7 +321,7 @@
     <t xml:space="preserve">$21.78</t>
   </si>
   <si>
-    <t xml:space="preserve">InfluenzaInfluenza Preservative-free (ages 6 to 35 months)</t>
+    <t xml:space="preserve">Influenza Influenza Preservative-free (ages 6 to 35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -362,7 +357,7 @@
     <t xml:space="preserve">Chiron</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -374,7 +369,7 @@
     <t xml:space="preserve">$34.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -390,7 +385,7 @@
     <t xml:space="preserve">$61.65</t>
   </si>
   <si>
-    <t xml:space="preserve">PneumococcalPolysaccharide (23 Valent)</t>
+    <t xml:space="preserve">Pneumococcal Polysaccharide (23 Valent)</t>
   </si>
   <si>
     <t xml:space="preserve">Pneumovax</t>
@@ -645,19 +640,19 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>38077</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -674,19 +669,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>38077</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -703,19 +698,19 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="1">
         <v>38077</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -732,19 +727,19 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="1">
         <v>38077</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -752,28 +747,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>38077</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -781,28 +776,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
         <v>38077</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -810,28 +805,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
         <v>38077</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -839,28 +834,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1">
-        <v>38077</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -868,28 +863,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1">
         <v>38077</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -897,28 +892,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1">
         <v>38077</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -926,28 +921,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
       <c r="G14" s="1">
         <v>38077</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -955,28 +950,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>38077</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -984,16 +979,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
@@ -1005,7 +1000,7 @@
         <v>38168</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -1013,28 +1008,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1">
         <v>38168</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1042,16 +1037,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -1063,7 +1058,7 @@
         <v>38168</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1071,28 +1066,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1">
         <v>38168</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1109,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -1121,7 +1116,7 @@
         <v>38168</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1129,7 +1124,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -1138,19 +1133,19 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1158,28 +1153,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1">
         <v>38077</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1196,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -1208,7 +1203,7 @@
         <v>38077</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1225,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -1237,7 +1232,7 @@
         <v>38077</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1254,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -1266,7 +1261,7 @@
         <v>38077</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1283,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>74</v>
@@ -1295,7 +1290,7 @@
         <v>38077</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1306,25 +1301,25 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G27" s="1">
         <v>38077</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1332,28 +1327,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
-      </c>
       <c r="G28" s="1">
         <v>38077</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1361,28 +1356,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1">
-        <v>38168</v>
+        <v>38077</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1390,28 +1385,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" s="1">
         <v>38168</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1419,28 +1414,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
         <v>84</v>
       </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>85</v>
-      </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G31" s="1">
         <v>38168</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1448,28 +1443,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>88</v>
       </c>
       <c r="G32" s="1">
         <v>38168</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1477,28 +1472,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>88</v>
       </c>
       <c r="G33" s="1">
         <v>38168</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -1506,28 +1501,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G34" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -1535,28 +1530,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G35" s="1">
         <v>38077</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -1564,28 +1559,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
         <v>96</v>
       </c>
-      <c r="E36" t="s">
-        <v>101</v>
-      </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G36" s="1">
         <v>38077</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1593,28 +1588,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G37" s="1">
-        <v>38017</v>
+        <v>38077</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -1622,28 +1617,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G38" s="1">
         <v>38017</v>
       </c>
       <c r="H38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
@@ -1651,28 +1646,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G39" s="1">
-        <v>38061</v>
+        <v>38017</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -1680,28 +1675,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1">
-        <v>38077</v>
+        <v>38061</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -1709,28 +1704,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G41" s="1">
         <v>38077</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1738,28 +1733,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G42" s="1">
-        <v>38168</v>
+        <v>38077</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -1767,28 +1762,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G43" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -1796,30 +1791,59 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
         <v>134</v>
       </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F45" t="s">
         <v>135</v>
       </c>
-      <c r="F44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="1">
-        <v>38077</v>
-      </c>
-      <c r="H44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="G45" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Files/Vaccine_February 23, 2004.xlsx
+++ b/Files/Vaccine_February 23, 2004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="135">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">5 x 1 dose TIP-LOK syringe </t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -107,8 +107,7 @@
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
-    <t xml:space="preserve">5
-x 1 dose vials</t>
+    <t xml:space="preserve">5 x 1 dose vials</t>
   </si>
   <si>
     <t xml:space="preserve">$23.40</t>
@@ -373,10 +372,6 @@
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5
-x 1 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$48.25</t>
@@ -1742,13 +1737,13 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
         <v>120</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>121</v>
-      </c>
-      <c r="F42" t="s">
-        <v>122</v>
       </c>
       <c r="G42" s="1">
         <v>38077</v>
@@ -1762,22 +1757,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
         <v>123</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
         <v>124</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>125</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>126</v>
-      </c>
-      <c r="F43" t="s">
-        <v>127</v>
       </c>
       <c r="G43" s="1">
         <v>38168</v>
@@ -1791,10 +1786,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
         <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -1803,10 +1798,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" t="s">
         <v>130</v>
-      </c>
-      <c r="F44" t="s">
-        <v>131</v>
       </c>
       <c r="G44" s="1">
         <v>38077</v>
@@ -1820,10 +1815,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
         <v>132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -1832,10 +1827,10 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" t="s">
         <v>134</v>
-      </c>
-      <c r="F45" t="s">
-        <v>135</v>
       </c>
       <c r="G45" s="1">
         <v>38077</v>
